--- a/Hardware/WaterLeakAlarmPartsList.xlsx
+++ b/Hardware/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Item #</t>
   </si>
@@ -75,18 +75,12 @@
     <t>USB power supply, 5 volt/1 Amp</t>
   </si>
   <si>
-    <t>220 ohm 1/4 watt resistor; 25 pack</t>
-  </si>
-  <si>
     <t>USB cable</t>
   </si>
   <si>
     <t>https://www.adafruit.com/products/1787</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/1536</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/products/169</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>https://www.adafruit.com/products/501</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/2780</t>
-  </si>
-  <si>
     <t>The Particle Electron may also be used.</t>
   </si>
   <si>
@@ -121,13 +112,127 @@
   </si>
   <si>
     <t>Order 1 or 2 sensors, as needed for your project.</t>
+  </si>
+  <si>
+    <t>Sparkfun.com</t>
+  </si>
+  <si>
+    <t>RJ11 dual breakout</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14021</t>
+  </si>
+  <si>
+    <t>RJ11 6 pin PCB connector</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/132</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8377</t>
+  </si>
+  <si>
+    <t>Resistor, 330 ohm, 1/6 watt PTH</t>
+  </si>
+  <si>
+    <t>Capacitor, 100 uf, 25 v</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/96</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8375</t>
+  </si>
+  <si>
+    <t>Capacitor, 0.1 uf, ceramic</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/139</t>
+  </si>
+  <si>
+    <t>Breakaway male pin headers (strip of 40)</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10158</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/7939</t>
+  </si>
+  <si>
+    <t>14 pin DIP socket</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/266</t>
+  </si>
+  <si>
+    <t>strip of 40 female-female 6" jumper wires</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/2783</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Extended price</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/pui-audio-inc/AI-1027-TWT-5V-2-R/668-1454-ND/50113891&amp;CID=GOOG&amp;gclid=CjwKEAjwlKLHBRDztKr6wMnRthMSJAALcT-s3kQwveiNPApDjMOQowmXU-FH9RB7R8ONUIlkIvk6iBoCmwjw_wcB</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>668-1454-ND</t>
+  </si>
+  <si>
+    <t>9.6mm diameter with 5mm lead pitch - NEED TO SEE IF THIS FITS.</t>
+  </si>
+  <si>
+    <t>Pack of 25, 4.7 K, 1/4 W resistors</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=S7016-ND</t>
+  </si>
+  <si>
+    <t>S7016-ND</t>
+  </si>
+  <si>
+    <t>18 pin female header</t>
+  </si>
+  <si>
+    <t>USB female type B connector</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/62</t>
+  </si>
+  <si>
+    <t>Get 3 boards for this price</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>http://www.officedepot.com/a/products/452378/Really-Useful-Box-Plastic-Storage-Box/</t>
+  </si>
+  <si>
+    <t>Office max</t>
+  </si>
+  <si>
+    <t>PC Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +264,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +330,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -209,6 +355,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,10 +672,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,16 +685,18 @@
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="56.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="7"/>
       <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,11 +715,17 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <f>1</f>
         <v>1</v>
@@ -564,11 +736,24 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="45">
+      <c r="G3" s="12">
+        <v>41.85</v>
+      </c>
+      <c r="H3" s="12">
+        <f>B3*G3</f>
+        <v>41.85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A16" si="0">A3+1</f>
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -586,11 +771,18 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+      <c r="G4" s="12">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H25" si="1">B4*G4</f>
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -608,10 +800,17 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -620,19 +819,29 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1536</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.87</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -650,10 +859,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5.95</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -671,10 +887,17 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -692,10 +915,17 @@
         <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -713,10 +943,17 @@
         <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -734,10 +971,17 @@
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
+        <v>25</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5.95</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -749,307 +993,745 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>2780</v>
+        <v>266</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.95</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2783</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3.95</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G15" s="12">
+        <v>3.62</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>7.24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14021</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8377</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8375</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4">
+        <v>139</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10158</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7939</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="6:6" ht="51.75" customHeight="1">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="6:6" ht="66" customHeight="1">
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="6:6">
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1.37</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4">
+        <v>452378</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2.79</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="6:6">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="6:6" ht="34.5" customHeight="1">
+      <c r="G27" s="12"/>
+      <c r="H27" s="14">
+        <f>SUM(H3:H26)</f>
+        <v>120.94000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="6:6">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="6:6">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="6:6">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="6:6">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="6:6">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="6:8">
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="6:6">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="6:8">
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:6">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="6:8">
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="6:6">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="6:8">
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="6:6">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="6:8">
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="6:6">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="6:8">
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="6:6">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="6:8">
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="6:6">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="6:8">
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="6:6">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="6:8">
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="6:6">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="6:8">
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="6:6">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="6:8">
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="6:6">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="6:8">
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="6:6">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="6:8">
       <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="6:6">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="6:8">
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="6:6">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="6:8">
       <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="6:6">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="6:8">
       <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="6:6">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="6:8">
       <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="6:6">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="6:8">
       <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="6:6">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="6:8">
       <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="6:6">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="6:8">
       <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="6:6">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="6:8">
       <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="6:6">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="6:8">
       <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="6:6">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="6:8">
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="6:6">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="6:8">
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="6:6">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="6:8">
       <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="6:6">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="6:8">
       <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="6:6">
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="6:8">
       <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="6:6">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="6:8">
       <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="6:6">
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="6:8">
       <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="6:6">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="6:8">
       <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="6:6">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="6:8">
       <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="6:6">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="6:8">
       <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="6:6">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="6:8">
       <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="6:6">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="6:8">
       <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="6:6">
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="6:8">
       <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="6:6">
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="6:8">
       <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="6:6">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="6:8">
       <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="6:6">
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="6:8">
       <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="6:6">
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="6:8">
       <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="6:6">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="6:8">
       <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="6:6">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="6:8">
       <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="6:6">
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="6:8">
       <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="6:6">
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="6:8">
       <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="6:6">
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="6:8">
       <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="6:6">
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="6:8">
       <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="6:6">
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="6:8">
       <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="6:6">
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="6:8">
       <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="6:6">
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="6:8">
       <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="6:6">
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="6:8">
       <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="6:6">
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="6:8">
       <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="6:6">
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="6:8">
       <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="6:6">
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="6:8">
       <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="6:6">
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="6:8">
       <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="6:6">
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="6:8">
       <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="6:6">
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="6:8">
       <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="6:6">
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="6:8">
       <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="6:6">
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="6:8">
       <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="6:6">
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="6:8">
       <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95" s="3"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="http://www.jameco.com/webapp/wcs/stores/servlet/Product_10001_10001_200580_-1"/>
     <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F19" r:id="rId13"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F23" r:id="rId17"/>
+    <hyperlink ref="F15" r:id="rId18"/>
+    <hyperlink ref="F7" r:id="rId19"/>
+    <hyperlink ref="F8" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Hardware/WaterLeakAlarmPartsList.xlsx
+++ b/Hardware/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Item #</t>
   </si>
@@ -129,36 +129,18 @@
     <t>https://www.sparkfun.com/products/132</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/8377</t>
-  </si>
-  <si>
-    <t>Resistor, 330 ohm, 1/6 watt PTH</t>
-  </si>
-  <si>
     <t>Capacitor, 100 uf, 25 v</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/96</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8375</t>
-  </si>
-  <si>
     <t>Capacitor, 0.1 uf, ceramic</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/139</t>
-  </si>
-  <si>
     <t>Breakaway male pin headers (strip of 40)</t>
   </si>
   <si>
     <t>https://www.sparkfun.com/products/10158</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/7939</t>
-  </si>
-  <si>
     <t>14 pin DIP socket</t>
   </si>
   <si>
@@ -168,30 +150,15 @@
     <t>strip of 40 female-female 6" jumper wires</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/2783</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
     <t>Extended price</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/pui-audio-inc/AI-1027-TWT-5V-2-R/668-1454-ND/50113891&amp;CID=GOOG&amp;gclid=CjwKEAjwlKLHBRDztKr6wMnRthMSJAALcT-s3kQwveiNPApDjMOQowmXU-FH9RB7R8ONUIlkIvk6iBoCmwjw_wcB</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>668-1454-ND</t>
-  </si>
-  <si>
-    <t>9.6mm diameter with 5mm lead pitch - NEED TO SEE IF THIS FITS.</t>
-  </si>
-  <si>
-    <t>Pack of 25, 4.7 K, 1/4 W resistors</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/products/en?keywords=S7016-ND</t>
   </si>
   <si>
@@ -204,9 +171,6 @@
     <t>USB female type B connector</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/62</t>
-  </si>
-  <si>
     <t>Get 3 boards for this price</t>
   </si>
   <si>
@@ -223,6 +187,51 @@
   </si>
   <si>
     <t>PC Board</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/1536</t>
+  </si>
+  <si>
+    <t>Part has .3 inch (7.62 mm) pin spacing; board has 5 mm pin spacing.  Cannot find piezzo (low current) part with the right pin spacing.  Will need to adapt to the current board layout.</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/webapp/wcs/stores/servlet/Product_10001_10001_230958_-1</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/CF1-4W471JRC-Resistor-Carbon-Film-470-Ohm-1-4-Watt-5-_690785.html</t>
+  </si>
+  <si>
+    <t>Must order 10 pcs</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/CF1-4W472JRC-Resistor-Carbon-Film-4-7k-Ohm-1-4-Watt-5-_691024.html</t>
+  </si>
+  <si>
+    <t>Jameco</t>
+  </si>
+  <si>
+    <t>Resistor, 470 ohm, 1/4 watt axial)</t>
+  </si>
+  <si>
+    <t>Resistor, 4.7 k ohm, 1/4 watt axial)</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/10U2-02203-BK-Cable-USB2-0-A-B-3-Feet-Black-USB-A-Male-To-USB-B-Male_222608.html</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/USB-B-S-RA-CS1-SPCC-WT-Adam-Technologies-Connector-USB-2-0-USB-B-Pcb-Female-Right-Angle_230958.html</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/R100-25-100-uF-25-Volt-Radial-Capacitor_93761.html</t>
+  </si>
+  <si>
+    <t>Must order 10 parts</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/DC-1-25-Capacitor-Ceramic-Disc-0-1-micro-F-25V-plusmn-20-37-_151116.html</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/6100-14-R-Socket-IC-14-Pin-Machine-Tooled-Low-Profile-0-3-Inch-Wide_37197.html</t>
   </si>
 </sst>
 </file>
@@ -232,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +314,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +345,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -347,17 +362,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -373,6 +382,15 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,7 +693,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,14 +703,14 @@
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="56.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -715,11 +733,11 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>52</v>
+      <c r="G2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -737,18 +755,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>41.85</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <f>B3*G3</f>
         <v>41.85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45">
@@ -771,10 +789,10 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>19</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f t="shared" ref="H4:H25" si="1">B4*G4</f>
         <v>19</v>
       </c>
@@ -793,7 +811,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="14">
         <v>1787</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -802,15 +820,15 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>1.5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -819,26 +837,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1536</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1.87</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>57</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -861,10 +879,10 @@
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>5.95</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
@@ -889,10 +907,10 @@
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -917,10 +935,10 @@
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>1.5</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -945,10 +963,10 @@
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.95</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
@@ -973,10 +991,10 @@
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>5.95</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
@@ -996,48 +1014,51 @@
         <v>266</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="12">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10">
         <v>3.95</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4">
-        <v>2783</v>
+        <v>691024</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="G13" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1046,23 +1067,23 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4">
-        <v>62</v>
+        <v>222608</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="12">
-        <v>3.95</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="1"/>
-        <v>3.95</v>
+        <v>66</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1">
@@ -1085,10 +1106,10 @@
       <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>3.62</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>7.24</v>
       </c>
@@ -1116,15 +1137,15 @@
       <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>1.95</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1144,99 +1165,105 @@
       <c r="F17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>1.25</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:9" ht="45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4">
-        <v>8377</v>
+        <v>63</v>
+      </c>
+      <c r="D18" s="15">
+        <v>690785</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4">
+        <v>93761</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4">
+        <v>151116</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="4">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8375</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30">
+        <v>70</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="66.75" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1245,26 +1272,29 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4">
-        <v>139</v>
+        <v>230958</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30">
+        <v>67</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1279,20 +1309,20 @@
         <v>10158</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12">
+        <v>40</v>
+      </c>
+      <c r="G22" s="10">
         <v>2.95</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:9" ht="53.25" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1301,26 +1331,26 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4">
-        <v>7939</v>
+        <v>317197</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="12">
+        <v>71</v>
+      </c>
+      <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.5" customHeight="1">
+    <row r="24" spans="1:9" ht="31.5" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1329,26 +1359,26 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="12">
+        <v>47</v>
+      </c>
+      <c r="G24" s="10">
         <v>1.37</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1357,381 +1387,383 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4">
         <v>452378</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="12">
+        <v>54</v>
+      </c>
+      <c r="G25" s="10">
         <v>2.79</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10" t="s">
-        <v>64</v>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14">
+      <c r="G27" s="10"/>
+      <c r="H27" s="12">
         <f>SUM(H3:H26)</f>
-        <v>120.94000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>118.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" s="3"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" s="3"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" s="3"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" s="3"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" s="3"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" s="3"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="3"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="3"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="3"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="3"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="3"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="3"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="3"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="3"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="3"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="3"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="3"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="3"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="3"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="3"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="3"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="3"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="3"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="3"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="6:8">
       <c r="F63" s="3"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="6:8">
       <c r="F64" s="3"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="6:8">
       <c r="F65" s="3"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="3"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8">
       <c r="F67" s="3"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="3"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="3"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="3"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="3"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8">
       <c r="F72" s="3"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="6:8">
       <c r="F73" s="3"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="3"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="3"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8">
       <c r="F76" s="3"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="3"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="3"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8">
       <c r="F79" s="3"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8">
       <c r="F80" s="3"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="6:8">
       <c r="F81" s="3"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="6:8">
       <c r="F82" s="3"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="3"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="3"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="3"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="3"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="3"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="3"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="6:8">
       <c r="F89" s="3"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="3"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.jameco.com/webapp/wcs/stores/servlet/Product_10001_10001_200580_-1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="F18" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
-    <hyperlink ref="F17" r:id="rId12"/>
-    <hyperlink ref="F19" r:id="rId13"/>
-    <hyperlink ref="F20" r:id="rId14"/>
-    <hyperlink ref="F21" r:id="rId15"/>
-    <hyperlink ref="F22" r:id="rId16"/>
-    <hyperlink ref="F23" r:id="rId17"/>
-    <hyperlink ref="F15" r:id="rId18"/>
-    <hyperlink ref="F7" r:id="rId19"/>
-    <hyperlink ref="F8" r:id="rId20"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
+    <hyperlink ref="F17" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13"/>
+    <hyperlink ref="F23" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F7" r:id="rId16"/>
+    <hyperlink ref="F8" r:id="rId17"/>
+    <hyperlink ref="F24" r:id="rId18"/>
+    <hyperlink ref="F6" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="F21" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId21"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Hardware/WaterLeakAlarmPartsList.xlsx
+++ b/Hardware/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Item #</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>http://www.jameco.com/z/6100-14-R-Socket-IC-14-Pin-Machine-Tooled-Low-Profile-0-3-Inch-Wide_37197.html</t>
+  </si>
+  <si>
+    <t>4 pin SIPP socket</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/6100-1-4-Socket-SIPP-1x4-Pin-Machine-Tool-Pins-Soldertail-Female_164822.html</t>
+  </si>
+  <si>
+    <t>Best to mount the DHT11 in a socket.</t>
   </si>
 </sst>
 </file>
@@ -690,10 +699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,7 +780,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -793,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H25" si="1">B4*G4</f>
+        <f t="shared" ref="H4:H26" si="1">B4*G4</f>
         <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1350,82 +1359,108 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" customHeight="1">
+    <row r="24" spans="1:9" ht="53.25" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4">
+        <v>164822</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>1.37</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="4">
         <v>452378</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>2.79</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="F26" s="3"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="12">
-        <f>SUM(H3:H26)</f>
-        <v>118.84</v>
-      </c>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9">
+      <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="12">
+        <f>SUM(H3:H27)</f>
+        <v>119.43</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="F29" s="3"/>
@@ -1736,6 +1771,11 @@
       <c r="F90" s="3"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="6:8">
+      <c r="F91" s="3"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1756,11 +1796,11 @@
     <hyperlink ref="F15" r:id="rId15"/>
     <hyperlink ref="F7" r:id="rId16"/>
     <hyperlink ref="F8" r:id="rId17"/>
-    <hyperlink ref="F24" r:id="rId18"/>
+    <hyperlink ref="F25" r:id="rId18"/>
     <hyperlink ref="F6" r:id="rId19"/>
     <hyperlink ref="F14" r:id="rId20"/>
     <hyperlink ref="F21" r:id="rId21"/>
-    <hyperlink ref="F25" r:id="rId22"/>
+    <hyperlink ref="F26" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId23"/>

--- a/Hardware/WaterLeakAlarmPartsList.xlsx
+++ b/Hardware/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Item #</t>
   </si>
@@ -240,7 +240,13 @@
     <t>http://www.jameco.com/z/6100-1-4-Socket-SIPP-1x4-Pin-Machine-Tool-Pins-Soldertail-Female_164822.html</t>
   </si>
   <si>
-    <t>Best to mount the DHT11 in a socket.</t>
+    <t>Best to mount the DHT11 in a socket.  Might try the right angle header at:  https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC041LGBN-RC/S5440-ND/775898</t>
+  </si>
+  <si>
+    <t>https://oshpark.com/shared_projects/QQlx1IWc</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -701,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2">
         <f>1</f>
         <v>1</v>
@@ -763,10 +769,15 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="10">
         <v>41.85</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="53.25" customHeight="1">
+    <row r="24" spans="1:9" ht="76.5" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1801,9 +1812,10 @@
     <hyperlink ref="F14" r:id="rId20"/>
     <hyperlink ref="F21" r:id="rId21"/>
     <hyperlink ref="F26" r:id="rId22"/>
+    <hyperlink ref="F3" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId23"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/Hardware/WaterLeakAlarmPartsList.xlsx
+++ b/Hardware/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>Item #</t>
   </si>
@@ -171,9 +171,6 @@
     <t>USB female type B connector</t>
   </si>
   <si>
-    <t>Get 3 boards for this price</t>
-  </si>
-  <si>
     <t>TOTAL:</t>
   </si>
   <si>
@@ -192,18 +189,12 @@
     <t>https://www.adafruit.com/products/1536</t>
   </si>
   <si>
-    <t>Part has .3 inch (7.62 mm) pin spacing; board has 5 mm pin spacing.  Cannot find piezzo (low current) part with the right pin spacing.  Will need to adapt to the current board layout.</t>
-  </si>
-  <si>
     <t>http://www.jameco.com/webapp/wcs/stores/servlet/Product_10001_10001_230958_-1</t>
   </si>
   <si>
     <t>http://www.jameco.com/z/CF1-4W471JRC-Resistor-Carbon-Film-470-Ohm-1-4-Watt-5-_690785.html</t>
   </si>
   <si>
-    <t>Must order 10 pcs</t>
-  </si>
-  <si>
     <t>http://www.jameco.com/z/CF1-4W472JRC-Resistor-Carbon-Film-4-7k-Ohm-1-4-Watt-5-_691024.html</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>http://www.jameco.com/z/R100-25-100-uF-25-Volt-Radial-Capacitor_93761.html</t>
   </si>
   <si>
-    <t>Must order 10 parts</t>
-  </si>
-  <si>
     <t>http://www.jameco.com/z/DC-1-25-Capacitor-Ceramic-Disc-0-1-micro-F-25V-plusmn-20-37-_151116.html</t>
   </si>
   <si>
@@ -240,13 +228,124 @@
     <t>http://www.jameco.com/z/6100-1-4-Socket-SIPP-1x4-Pin-Machine-Tool-Pins-Soldertail-Female_164822.html</t>
   </si>
   <si>
-    <t>Best to mount the DHT11 in a socket.  Might try the right angle header at:  https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC041LGBN-RC/S5440-ND/775898</t>
-  </si>
-  <si>
-    <t>https://oshpark.com/shared_projects/QQlx1IWc</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Must order 10 parts (need 1)</t>
+  </si>
+  <si>
+    <t>Must order 10 parts (need 7)</t>
+  </si>
+  <si>
+    <t>Must order 10 pcs (need 5)</t>
+  </si>
+  <si>
+    <t>Must order 10 pcs (need 1)</t>
+  </si>
+  <si>
+    <t>Best to mount the DHT11 in a socket.  This miounts the part vertically - can bend the DHT11 horizinal after installation.</t>
+  </si>
+  <si>
+    <t>[need V2 part number from Jim]</t>
+  </si>
+  <si>
+    <t>Get 3 boards for this price.  Alternate (10 boards):</t>
+  </si>
+  <si>
+    <t>Use this part for the plastic box that you can cut to make the enclosure per the instructions.</t>
+  </si>
+  <si>
+    <t>Shapeways</t>
+  </si>
+  <si>
+    <t>Mounting assembly</t>
+  </si>
+  <si>
+    <t>Use this in lieu if the plastic box for a 3D printed ready to assemble mounting enclosure.</t>
+  </si>
+  <si>
+    <t>3D printed front panel</t>
+  </si>
+  <si>
+    <t>Use this with the Shapeways 3D printed Mounting assembly</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/8101-64207-Modular-Network-Cable-RJ11-6P4C-7-Feet-Long-Reverse-Grey_196227.html</t>
+  </si>
+  <si>
+    <t>7 ft 4 wire telephone cable</t>
+  </si>
+  <si>
+    <t>NOTE: the assembly instructions are for "reverse" or "telephone wired" cables.  This part number is an example of a 7 foot cable.  You can buy telephone cables in many sizes and colors in hardware stores and online.  Be sure to get 4 wire (not 2 wire) cables!</t>
+  </si>
+  <si>
+    <t>ENCLOSURE AND MOUNTING HARDWARE (CUT BOX)</t>
+  </si>
+  <si>
+    <t>ENCLOSURE AND MOUNTING HARDWARE (3D PRINTED)</t>
+  </si>
+  <si>
+    <t>Threaded standoff, F-F, 4-40 x 1", Nylon</t>
+  </si>
+  <si>
+    <t>Nylon screw, 4-40 x 1/2"</t>
+  </si>
+  <si>
+    <t>Nylon screw, 4-40 x 1/4"</t>
+  </si>
+  <si>
+    <t>Nylon nut, 4-40</t>
+  </si>
+  <si>
+    <t>#8 wood screw and wall anchors</t>
+  </si>
+  <si>
+    <t>Front panel, laser cut from 3 mm plastic or wood</t>
+  </si>
+  <si>
+    <t>Mounting bracket, laser cut from 3 mm plastic or wood</t>
+  </si>
+  <si>
+    <t>This is a custom made part from a 2D CAD file.  You need access to a laser cutter to fabricate it.</t>
+  </si>
+  <si>
+    <t>Self tapping screw</t>
+  </si>
+  <si>
+    <t>36-1902E-ND</t>
+  </si>
+  <si>
+    <t>36-9427-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=36-1902E-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=36-9427-ND</t>
+  </si>
+  <si>
+    <t>36-9529-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/keystone-electronics/9529/36-9529-ND/2746215</t>
+  </si>
+  <si>
+    <t>36-9605-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/keystone-electronics/9605/36-9605-ND/2746252</t>
+  </si>
+  <si>
+    <t>http://www.homedepot.com/p/E-Z-Ancor-Twist-N-Lock-75-lb-8-x-1-1-4-in-Philips-Zinc-Plated-Nylon-Flat-Head-Drywall-Anchors-with-Screws-4-Pack-11364/100165900</t>
+  </si>
+  <si>
+    <t>4 pack (need 2)</t>
+  </si>
+  <si>
+    <t>[need link from Jim]</t>
   </si>
 </sst>
 </file>
@@ -256,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +434,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +466,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -406,6 +512,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,10 +820,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <f>1</f>
         <v>1</v>
@@ -770,23 +885,18 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="10">
-        <v>41.85</v>
-      </c>
-      <c r="H3" s="10">
-        <f>B3*G3</f>
-        <v>41.85</v>
-      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45">
@@ -848,7 +958,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -866,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="10">
         <v>0.95</v>
@@ -874,9 +984,6 @@
       <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0.95</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1056,16 +1163,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <v>691024</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="10">
         <v>9.9000000000000005E-2</v>
@@ -1075,7 +1182,7 @@
         <v>0.99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
@@ -1087,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4">
         <v>222608</v>
@@ -1096,7 +1203,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="10">
         <v>1.75</v>
@@ -1202,16 +1309,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="15">
         <v>690785</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="10">
         <v>9.9000000000000005E-2</v>
@@ -1221,7 +1328,7 @@
         <v>0.99</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30">
@@ -1233,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4">
         <v>93761</v>
@@ -1242,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" s="10">
         <v>0.09</v>
@@ -1252,7 +1359,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45">
@@ -1264,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4">
         <v>151116</v>
@@ -1273,7 +1380,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10">
         <v>0.15</v>
@@ -1281,6 +1388,9 @@
       <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>1.5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="66.75" customHeight="1">
@@ -1292,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>230958</v>
@@ -1301,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G21" s="10">
         <v>0.99</v>
@@ -1311,7 +1421,7 @@
         <v>0.99</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
@@ -1351,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4">
         <v>317197</v>
@@ -1360,7 +1470,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G23" s="10">
         <v>0.5</v>
@@ -1370,7 +1480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="76.5" customHeight="1">
+    <row r="24" spans="1:9" ht="55.5" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1379,16 +1489,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4">
         <v>164822</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" s="10">
         <v>0.59</v>
@@ -1398,7 +1508,7 @@
         <v>0.59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" customHeight="1">
@@ -1429,32 +1539,35 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="26" spans="1:9" ht="74.25" customHeight="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4">
-        <v>452378</v>
+        <v>60</v>
+      </c>
+      <c r="D26" s="16">
+        <v>196227</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G26" s="10">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>2.79</v>
+        <v>3.5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1464,13 +1577,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="10"/>
       <c r="H28" s="12">
-        <f>SUM(H3:H27)</f>
-        <v>119.43</v>
+        <f>SUM(H4:H27)</f>
+        <v>78.290000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1478,8 +1591,10 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="F30" s="3"/>
+    <row r="30" spans="1:9" ht="30">
+      <c r="F30" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
@@ -1488,167 +1603,480 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="F32" s="3"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="3"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="3"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" s="3"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="6:8">
+    <row r="32" spans="1:9" ht="45">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>452378</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="H32" s="10">
+        <f>B32*G32</f>
+        <v>2.79</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="2">
+        <f>A32+1</f>
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="10">
+        <f>G33*B33</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A34" s="2">
+        <f t="shared" ref="A34:A39" si="2">A33+1</f>
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H34" s="10">
+        <f>G34*B34</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H35" s="10">
+        <f>G35*B35</f>
+        <v>1.6800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="55.5" customHeight="1">
+      <c r="A36" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="H36" s="10">
+        <f>G36*B36</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60">
+      <c r="A37" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="4">
+        <v>11364</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="H37" s="10">
+        <f>G37*B37</f>
+        <v>1.49</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="F40" s="3"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="6:8">
+    <row r="41" spans="1:9">
       <c r="F41" s="3"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="6:8">
-      <c r="F42" s="3"/>
+    <row r="42" spans="1:9" ht="30">
+      <c r="F42" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="6:8">
-      <c r="F43" s="3"/>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="3"/>
+      <c r="I43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <f>A43+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="3"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="3"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" s="3"/>
+      <c r="I44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="2">
+        <f t="shared" ref="A45:A50" si="3">A44+1</f>
+        <v>3</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H45" s="10">
+        <f>G45*B45</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
+      <c r="A46" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="H46" s="10">
+        <f>G46*B46</f>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="6:8">
-      <c r="F48" s="3"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="6:8">
+    <row r="48" spans="1:9" ht="60">
+      <c r="A48" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="4">
+        <v>11364</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="H48" s="10">
+        <f>G48*B48</f>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
       <c r="F49" s="3"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="6:8">
+    <row r="50" spans="3:8">
       <c r="F50" s="3"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="6:8">
+    <row r="51" spans="3:8">
       <c r="F51" s="3"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="6:8">
+    <row r="52" spans="3:8">
       <c r="F52" s="3"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="6:8">
+    <row r="53" spans="3:8">
       <c r="F53" s="3"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="3:8">
       <c r="F54" s="3"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="3:8">
       <c r="F55" s="3"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="3:8">
       <c r="F56" s="3"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="3:8">
       <c r="F57" s="3"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="3:8">
       <c r="F58" s="3"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="3:8">
       <c r="F59" s="3"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="3:8">
       <c r="F60" s="3"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="6:8">
+    <row r="61" spans="3:8">
       <c r="F61" s="3"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="3:8">
       <c r="F62" s="3"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="3:8">
       <c r="F63" s="3"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="3:8">
       <c r="F64" s="3"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -1787,6 +2215,56 @@
       <c r="F91" s="3"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="6:8">
+      <c r="F92" s="3"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="6:8">
+      <c r="F93" s="3"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="6:8">
+      <c r="F94" s="3"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="6:8">
+      <c r="F95" s="3"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="6:8">
+      <c r="F96" s="3"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="6:8">
+      <c r="F97" s="3"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="6:8">
+      <c r="F98" s="3"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="6:8">
+      <c r="F99" s="3"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="6:8">
+      <c r="F100" s="3"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="6:8">
+      <c r="F101" s="3"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1811,11 +2289,12 @@
     <hyperlink ref="F6" r:id="rId19"/>
     <hyperlink ref="F14" r:id="rId20"/>
     <hyperlink ref="F21" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F3" r:id="rId23"/>
+    <hyperlink ref="F32" r:id="rId22"/>
+    <hyperlink ref="F3" r:id="rId23" display="https://oshpark.com/shared_projects/QQlx1IWc"/>
+    <hyperlink ref="F24" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId24"/>
+  <pageSetup scale="32" orientation="landscape" r:id="rId25"/>
 </worksheet>
 </file>
 
